--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/683964cd433d66f5/Desktop/Winter 2021/CSE 310 Applied Programming/Autozoom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{7AF61853-9139-4035-B1ED-B0C9D0FE01F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B8F7830C-5521-4795-9050-B275BA0B947D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{7AF61853-9139-4035-B1ED-B0C9D0FE01F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7FD1598B-9879-4414-9CA5-CBD68F48668B}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1176" windowWidth="23256" windowHeight="13176" xr2:uid="{1B8F0F32-144C-47F7-A9E4-07FB3BC7D22A}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
       <c r="C2" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -570,7 +570,7 @@
       <c r="C4" s="6">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -606,8 +606,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{C07D36AD-A554-4086-A2CA-22E75837A769}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{0F5FB520-39EE-4444-BF97-E8380361765F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{2EC91D5E-A177-4CC1-A505-CA47290BB6EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>